--- a/Program/Standardized test.xlsx
+++ b/Program/Standardized test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghansheng/Desktop/EduSpark/项目/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanghansheng/Desktop/EduSpark/Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B73F9371-6A28-3641-ABAE-08A56F3C44B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1ED992-84C9-9949-B0F0-CEA7297DC1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="2300" windowWidth="23320" windowHeight="15700" xr2:uid="{6A64ABFF-2FE3-0E42-8D35-E0F1A2AB1116}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -491,21 +491,15 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>330</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
-        <v>110</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -514,21 +508,15 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>325</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <v>105</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
-        <v>7.5</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -537,21 +525,15 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>320</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1">
-        <v>8</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -560,21 +542,15 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>330</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
-        <v>95</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1">
-        <v>7.5</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -629,21 +605,15 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>330</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1">
-        <v>8</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -652,21 +622,15 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>325</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
-        <v>95</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1">
-        <v>7.5</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -721,21 +685,15 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <v>325</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="1">
-        <v>8</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -744,21 +702,15 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
-        <v>320</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1">
-        <v>95</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="1">
-        <v>7.5</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -767,21 +719,15 @@
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
-        <v>330</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1">
-        <v>110</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1">
-        <v>7</v>
-      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -790,21 +736,15 @@
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <v>325</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1">
-        <v>105</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1">
-        <v>7.5</v>
-      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -928,21 +868,15 @@
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
-        <v>330</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1">
-        <v>95</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="1">
-        <v>7.5</v>
-      </c>
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
